--- a/variant_32/Задание 18/18.xlsx
+++ b/variant_32/Задание 18/18.xlsx
@@ -1,32 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sr/Yandex.Disk.localized/Компьютер/Различные работы/5 вариантов/18/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8674ED8-CD9B-AC49-90A5-9936B2003E27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="7760" windowWidth="27640" windowHeight="16860" xr2:uid="{921D613A-7D98-D942-AA00-00A103D6A600}"/>
+    <workbookView xWindow="3120" yWindow="7755" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>МАКС = 669</t>
+  </si>
+  <si>
+    <t>МИН = 438</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -118,7 +123,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -170,7 +175,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -364,23 +369,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E0EBFF-AD5F-C049-A771-884C6F0C3BD0}">
-  <dimension ref="A1:O15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:O15"/>
+    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="17" max="17" width="15.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1">
         <v>22</v>
       </c>
@@ -427,7 +435,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>28</v>
       </c>
@@ -474,7 +482,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>29</v>
       </c>
@@ -521,7 +529,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>13</v>
       </c>
@@ -568,7 +576,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>15</v>
       </c>
@@ -615,7 +623,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>24</v>
       </c>
@@ -662,7 +670,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>19</v>
       </c>
@@ -709,7 +717,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>15</v>
       </c>
@@ -756,7 +764,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>17</v>
       </c>
@@ -803,7 +811,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>18</v>
       </c>
@@ -850,7 +858,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>22</v>
       </c>
@@ -897,7 +905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>15</v>
       </c>
@@ -944,7 +952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>21</v>
       </c>
@@ -991,7 +999,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>23</v>
       </c>
@@ -1038,7 +1046,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1083,6 +1091,942 @@
       </c>
       <c r="O15">
         <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18">
+        <f>A1</f>
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <f>B1+A18</f>
+        <v>43</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:O18" si="0">C1+B18</f>
+        <v>55</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>154</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>191</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>214</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>251</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>267</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>283</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19">
+        <f>A2+A18</f>
+        <v>50</v>
+      </c>
+      <c r="B19">
+        <f>B2+MIN(B18,A19)</f>
+        <v>54</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:O19" si="1">C2+MIN(C18,B19)</f>
+        <v>71</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>138</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>178</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>194</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>208</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>218</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>248</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>274</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="1"/>
+        <v>291</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="1"/>
+        <v>306</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20">
+        <f t="shared" ref="A20:A36" si="2">A3+A19</f>
+        <v>79</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ref="B20:B32" si="3">B3+MIN(B19,A20)</f>
+        <v>66</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ref="C20:C32" si="4">C3+MIN(C19,B20)</f>
+        <v>84</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ref="D20:D32" si="5">D3+MIN(D19,C20)</f>
+        <v>104</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20:E32" si="6">E3+MIN(E19,D20)</f>
+        <v>130</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ref="F20:F32" si="7">F3+MIN(F19,E20)</f>
+        <v>160</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ref="G20:G32" si="8">G3+MIN(G19,F20)</f>
+        <v>182</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ref="H20:H32" si="9">H3+MIN(H19,G20)</f>
+        <v>196</v>
+      </c>
+      <c r="I20">
+        <f t="shared" ref="I20:I32" si="10">I3+MIN(I19,H20)</f>
+        <v>220</v>
+      </c>
+      <c r="J20">
+        <f t="shared" ref="J20:J32" si="11">J3+MIN(J19,I20)</f>
+        <v>237</v>
+      </c>
+      <c r="K20">
+        <f t="shared" ref="K20:K32" si="12">K3+MIN(K19,J20)</f>
+        <v>243</v>
+      </c>
+      <c r="L20">
+        <f t="shared" ref="L20:L32" si="13">L3+MIN(L19,K20)</f>
+        <v>259</v>
+      </c>
+      <c r="M20">
+        <f t="shared" ref="M20:M32" si="14">M3+MIN(M19,L20)</f>
+        <v>270</v>
+      </c>
+      <c r="N20">
+        <f t="shared" ref="N20:N32" si="15">N3+MIN(N19,M20)</f>
+        <v>280</v>
+      </c>
+      <c r="O20">
+        <f t="shared" ref="O20:O32" si="16">O3+MIN(O19,N20)</f>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="4"/>
+        <v>107</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="5"/>
+        <v>115</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="6"/>
+        <v>139</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="7"/>
+        <v>166</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="8"/>
+        <v>190</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="9"/>
+        <v>218</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="10"/>
+        <v>236</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="11"/>
+        <v>255</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="12"/>
+        <v>254</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="13"/>
+        <v>281</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="14"/>
+        <v>300</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="15"/>
+        <v>305</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="16"/>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22">
+        <f t="shared" si="2"/>
+        <v>107</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="3"/>
+        <v>103</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="4"/>
+        <v>125</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="5"/>
+        <v>130</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="6"/>
+        <v>144</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="7"/>
+        <v>171</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="8"/>
+        <v>187</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="9"/>
+        <v>209</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="10"/>
+        <v>233</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="11"/>
+        <v>247</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="12"/>
+        <v>277</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="13"/>
+        <v>299</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="14"/>
+        <v>314</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="15"/>
+        <v>316</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="16"/>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23">
+        <f t="shared" si="2"/>
+        <v>131</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="3"/>
+        <v>129</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="4"/>
+        <v>147</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="5"/>
+        <v>141</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="6"/>
+        <v>171</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="7"/>
+        <v>187</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="8"/>
+        <v>202</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="9"/>
+        <v>213</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="10"/>
+        <v>228</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="11"/>
+        <v>239</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="12"/>
+        <v>254</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="13"/>
+        <v>276</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="14"/>
+        <v>300</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="15"/>
+        <v>311</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="16"/>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="3"/>
+        <v>153</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="4"/>
+        <v>175</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="5"/>
+        <v>169</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="6"/>
+        <v>191</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="7"/>
+        <v>201</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="8"/>
+        <v>216</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="9"/>
+        <v>229</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="10"/>
+        <v>249</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="11"/>
+        <v>251</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="12"/>
+        <v>264</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="13"/>
+        <v>279</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="14"/>
+        <v>302</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="15"/>
+        <v>312</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="16"/>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="3"/>
+        <v>163</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="4"/>
+        <v>186</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="5"/>
+        <v>187</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="6"/>
+        <v>206</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="7"/>
+        <v>213</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="8"/>
+        <v>226</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="9"/>
+        <v>256</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="10"/>
+        <v>273</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="11"/>
+        <v>268</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="12"/>
+        <v>288</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="13"/>
+        <v>296</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="14"/>
+        <v>313</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="15"/>
+        <v>337</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="16"/>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26">
+        <f t="shared" si="2"/>
+        <v>182</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="3"/>
+        <v>174</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="4"/>
+        <v>195</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="5"/>
+        <v>216</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="6"/>
+        <v>222</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="7"/>
+        <v>236</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="8"/>
+        <v>253</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="9"/>
+        <v>282</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="10"/>
+        <v>299</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="11"/>
+        <v>287</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="12"/>
+        <v>311</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="13"/>
+        <v>310</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="14"/>
+        <v>325</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="15"/>
+        <v>354</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="16"/>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="3"/>
+        <v>191</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="4"/>
+        <v>205</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="5"/>
+        <v>219</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="6"/>
+        <v>247</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="7"/>
+        <v>266</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="8"/>
+        <v>271</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="9"/>
+        <v>287</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="10"/>
+        <v>298</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="11"/>
+        <v>317</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="12"/>
+        <v>327</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="13"/>
+        <v>320</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="14"/>
+        <v>350</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="15"/>
+        <v>376</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="16"/>
+        <v>391</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28">
+        <f t="shared" si="2"/>
+        <v>222</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="3"/>
+        <v>204</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="4"/>
+        <v>227</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="5"/>
+        <v>237</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="6"/>
+        <v>254</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="7"/>
+        <v>264</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="8"/>
+        <v>274</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="9"/>
+        <v>288</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="10"/>
+        <v>304</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="11"/>
+        <v>325</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="12"/>
+        <v>352</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="13"/>
+        <v>334</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="14"/>
+        <v>364</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="15"/>
+        <v>379</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="16"/>
+        <v>391</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29">
+        <f t="shared" si="2"/>
+        <v>237</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="3"/>
+        <v>224</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="4"/>
+        <v>244</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="5"/>
+        <v>265</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="6"/>
+        <v>277</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="7"/>
+        <v>294</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="8"/>
+        <v>301</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="9"/>
+        <v>303</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="10"/>
+        <v>333</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="11"/>
+        <v>338</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="12"/>
+        <v>361</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="13"/>
+        <v>347</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="14"/>
+        <v>361</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="15"/>
+        <v>376</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="16"/>
+        <v>391</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30">
+        <f t="shared" si="2"/>
+        <v>258</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="3"/>
+        <v>240</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="4"/>
+        <v>253</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="5"/>
+        <v>282</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="6"/>
+        <v>291</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="7"/>
+        <v>319</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="8"/>
+        <v>325</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="9"/>
+        <v>316</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="10"/>
+        <v>334</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="11"/>
+        <v>352</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="12"/>
+        <v>368</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="13"/>
+        <v>359</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="14"/>
+        <v>374</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="15"/>
+        <v>395</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="16"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31">
+        <f t="shared" si="2"/>
+        <v>281</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="3"/>
+        <v>257</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="4"/>
+        <v>270</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="5"/>
+        <v>288</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="6"/>
+        <v>299</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="7"/>
+        <v>313</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="8"/>
+        <v>329</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="9"/>
+        <v>340</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="10"/>
+        <v>347</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="11"/>
+        <v>357</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="12"/>
+        <v>372</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="13"/>
+        <v>370</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="14"/>
+        <v>384</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="15"/>
+        <v>408</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="16"/>
+        <v>436</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32">
+        <f t="shared" si="2"/>
+        <v>295</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="3"/>
+        <v>270</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="4"/>
+        <v>283</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="5"/>
+        <v>297</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="6"/>
+        <v>322</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="7"/>
+        <v>338</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="8"/>
+        <v>354</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="9"/>
+        <v>369</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="10"/>
+        <v>372</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="11"/>
+        <v>381</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="12"/>
+        <v>393</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="13"/>
+        <v>390</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="14"/>
+        <v>413</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="15"/>
+        <v>426</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="16"/>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
